--- a/Invoice Manager.xlsx
+++ b/Invoice Manager.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,6 +29,13 @@
     <font>
       <name val="Arial"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,10 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,15 +443,15 @@
   </sheetPr>
   <dimension ref="A1:L279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B279" sqref="A277:B279"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A277" sqref="A277:C294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="18.140625" bestFit="1" customWidth="1" min="1" max="4"/>
-    <col width="32.7109375" customWidth="1" min="5" max="5"/>
-    <col width="18.140625" bestFit="1" customWidth="1" min="6" max="12"/>
+    <col width="18.109375" bestFit="1" customWidth="1" min="1" max="4"/>
+    <col width="32.6640625" customWidth="1" min="5" max="5"/>
+    <col width="18.109375" bestFit="1" customWidth="1" min="6" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14114,9 +14123,8 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276">
-        <f>B276/B274</f>
-        <v/>
+      <c r="A276" s="3" t="n">
+        <v>0.862815837</v>
       </c>
       <c r="B276">
         <f>B274-B275</f>
@@ -14137,22 +14145,30 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Total Billed</t>
+          <t>Written Off</t>
         </is>
       </c>
       <c r="B278">
-        <f>SUM(IF(F2:F276=FALSE,I2:I276,0))+SUM(IF(K2:K276&lt;&gt;0,I2:I276,0))</f>
+        <f t="array" ref="B278">SUM(IF($F$2:$F$276=FALSE,$I$2:$I$276,0))+SUM(IF(K2:K276&lt;&gt;0,I2:I276,0))</f>
+        <v/>
+      </c>
+      <c r="C278" s="4">
+        <f>B278/B277</f>
         <v/>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Retained</t>
+          <t xml:space="preserve">Retiained </t>
         </is>
       </c>
       <c r="B279">
         <f>B277-B278</f>
+        <v/>
+      </c>
+      <c r="C279" s="4">
+        <f>B279/B277</f>
         <v/>
       </c>
     </row>

--- a/Invoice Manager.xlsx
+++ b/Invoice Manager.xlsx
@@ -441,10 +441,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L279"/>
+  <dimension ref="A1:L281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A277" sqref="A277:C294"/>
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A278" sqref="A278:C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -14097,50 +14097,72 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Written off</t>
+        </is>
+      </c>
       <c r="B274">
+        <f t="array" ref="B274">SUM(IF(F2:F273=FALSE,I2:I273,0))</f>
+        <v/>
+      </c>
+      <c r="C274" s="4">
+        <f>B274/B277</f>
+        <v/>
+      </c>
+      <c r="D274">
+        <f>SUM(I2:I36)</f>
+        <v/>
+      </c>
+      <c r="E274">
+        <f>SUMIFS(I2:I273,F2:F273,FALSE)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Collected</t>
+        </is>
+      </c>
+      <c r="B275">
+        <f>SUMIFS(I2:I273,F2:F273,TRUE,K2:K273,"=0")</f>
+        <v/>
+      </c>
+      <c r="C275" s="4">
+        <f>B275/B277</f>
+        <v/>
+      </c>
+      <c r="D275">
+        <f>SUM(I37:I271)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="3" t="inlineStr">
+        <is>
+          <t>In Collections</t>
+        </is>
+      </c>
+      <c r="B276">
+        <f>SUMIFS(I2:I273,F2:F273,TRUE,K2:K273,"&lt;&gt;0")</f>
+        <v/>
+      </c>
+      <c r="D276">
+        <f>SUM(I272:I273)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Total Billed</t>
+        </is>
+      </c>
+      <c r="B277">
         <f>SUM(I2:I273)</f>
         <v/>
       </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>billed</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275">
-        <f>B275/B274</f>
-        <v/>
-      </c>
-      <c r="B275">
-        <f>SUM(I2:I36)+SUM(I272:I273)</f>
-        <v/>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>write-off - not collected</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="3" t="n">
-        <v>0.862815837</v>
-      </c>
-      <c r="B276">
-        <f>B274-B275</f>
-        <v/>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Total Billed</t>
-        </is>
-      </c>
-      <c r="B277">
-        <f>SUM(I2:I276)</f>
-        <v/>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -14149,26 +14171,52 @@
         </is>
       </c>
       <c r="B278">
-        <f t="array" ref="B278">SUM(IF($F$2:$F$276=FALSE,$I$2:$I$276,0))+SUM(IF(K2:K276&lt;&gt;0,I2:I276,0))</f>
+        <f>SUMIFS(I2:I277,F2:F277,FALSE)</f>
         <v/>
       </c>
       <c r="C278" s="4">
-        <f>B278/B277</f>
+        <f>B278/B281</f>
         <v/>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Retiained </t>
+          <t>Collected</t>
         </is>
       </c>
       <c r="B279">
-        <f>B277-B278</f>
+        <f>SUMIFS(I2:I277,F2:F277,TRUE,K2:K277,"=0")</f>
         <v/>
       </c>
       <c r="C279" s="4">
-        <f>B279/B277</f>
+        <f>B279/B281</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>In Collections</t>
+        </is>
+      </c>
+      <c r="B280">
+        <f>SUMIFS(I2:I277,F2:F277,TRUE,K2:K277,"&lt;&gt;0")</f>
+        <v/>
+      </c>
+      <c r="C280" s="4">
+        <f>B280/B281</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Total Billed</t>
+        </is>
+      </c>
+      <c r="B281">
+        <f>SUM(I2:I277)</f>
         <v/>
       </c>
     </row>
